--- a/saibabacharityreceiptor/App_Data/template.xlsx
+++ b/saibabacharityreceiptor/App_Data/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Address</t>
   </si>
@@ -51,31 +51,10 @@
     <t>Mode Of Payment</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Santhosh</t>
-  </si>
-  <si>
-    <t>some address</t>
-  </si>
-  <si>
-    <t>santhoshonet@gmail.com</t>
-  </si>
-  <si>
-    <t>hundred</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>Received By</t>
-  </si>
-  <si>
-    <t>Santhoshonet</t>
   </si>
 </sst>
 </file>
@@ -432,7 +411,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -489,44 +468,15 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>94453234234</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
